--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\git-CVC\Skema\git-iscri\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22080A76-83B9-48FD-8C42-5D7DE86EA2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0039DC5D-FCBA-4DF7-AD48-8C98E02CB703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Goldstein" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>Y</t>
   </si>
@@ -109,11 +110,29 @@
   <si>
     <t>Diff</t>
   </si>
+  <si>
+    <t>Goldstein_scale &lt; 0</t>
+  </si>
+  <si>
+    <t>Quad34</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Quad34 AND G &gt; 0</t>
+  </si>
+  <si>
+    <t>QUAD12 AND G &lt; 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,12 +176,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G14"/>
     </sheetView>
   </sheetViews>
@@ -5642,4 +5663,91 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7B7D2E-960E-4DD6-A2C8-04A67A3AB3D5}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>257484535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>220776164</v>
+      </c>
+      <c r="C2" s="5">
+        <f>B2/B1</f>
+        <v>0.85743465719212997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>220750528</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3/B1</f>
+        <v>0.85733509393098117</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3/B2</f>
+        <v>0.99988388239230386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>22249</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/B1</f>
+        <v>8.6409073073068259E-5</v>
+      </c>
+      <c r="D4" s="6">
+        <f>B4/B2</f>
+        <v>1.0077627764200124E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>36734007</v>
+      </c>
+      <c r="C5" s="5">
+        <f>B5/B1</f>
+        <v>0.14266490606901885</v>
+      </c>
+      <c r="D5" s="5">
+        <f>B5/B2</f>
+        <v>0.16638574714976931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>